--- a/data/state_election_results/oregon_president.xlsx
+++ b/data/state_election_results/oregon_president.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amirhamilton/Desktop/Gov_51/covid_election/data/state_election_results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C5C88DE-C2FD-844D-8CBC-117425F3F2AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{852EB57F-2082-7846-98BF-878F286B564E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4300" yWindow="2700" windowWidth="27640" windowHeight="16940" xr2:uid="{C48CCA39-670F-9948-91DE-FD0B7476A449}"/>
   </bookViews>
@@ -36,9 +36,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
-    <t>County</t>
-  </si>
-  <si>
     <t>Baker</t>
   </si>
   <si>
@@ -157,6 +154,9 @@
   </si>
   <si>
     <t>trump.percent</t>
+  </si>
+  <si>
+    <t>county</t>
   </si>
 </sst>
 </file>
@@ -164,7 +164,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -207,7 +207,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -524,32 +524,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA16ABC8-0D90-1341-B8B4-01F5280274C3}">
   <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="2">
         <v>2346</v>
@@ -566,7 +564,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="2">
         <v>35827</v>
@@ -583,7 +581,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="2">
         <v>139043</v>
@@ -600,7 +598,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="2">
         <v>12916</v>
@@ -617,7 +615,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="2">
         <v>13835</v>
@@ -634,7 +632,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="2">
         <v>14243</v>
@@ -651,7 +649,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="2">
         <v>3801</v>
@@ -668,7 +666,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="2">
         <v>6058</v>
@@ -685,7 +683,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="2">
         <v>65962</v>
@@ -702,7 +700,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="2">
         <v>19160</v>
@@ -719,7 +717,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
         <v>324</v>
@@ -736,7 +734,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
         <v>929</v>
@@ -753,7 +751,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
         <v>894</v>
@@ -770,7 +768,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="2">
         <v>8764</v>
@@ -787,7 +785,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="2">
         <v>59478</v>
@@ -804,7 +802,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" s="2">
         <v>4393</v>
@@ -821,7 +819,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" s="2">
         <v>18451</v>
@@ -838,7 +836,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" s="2">
         <v>10388</v>
@@ -855,7 +853,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
         <v>792</v>
@@ -872,7 +870,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" s="2">
         <v>134366</v>
@@ -889,7 +887,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" s="2">
         <v>17385</v>
@@ -906,7 +904,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" s="2">
         <v>26512</v>
@@ -923,7 +921,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" s="2">
         <v>3260</v>
@@ -940,7 +938,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" s="2">
         <v>80872</v>
@@ -957,7 +955,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" s="2">
         <v>1371</v>
@@ -974,7 +972,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" s="2">
         <v>367249</v>
@@ -991,7 +989,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28" s="2">
         <v>22917</v>
@@ -1008,7 +1006,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
         <v>260</v>
@@ -1025,7 +1023,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30" s="2">
         <v>8066</v>
@@ -1042,7 +1040,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31" s="2">
         <v>10707</v>
@@ -1059,7 +1057,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32" s="2">
         <v>4254</v>
@@ -1076,7 +1074,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33" s="2">
         <v>1625</v>
@@ -1093,7 +1091,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34" s="2">
         <v>6604</v>
@@ -1110,7 +1108,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35" s="2">
         <v>209940</v>
@@ -1127,7 +1125,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
         <v>217</v>
@@ -1144,7 +1142,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37" s="2">
         <v>27174</v>
